--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\TeamProject\contents5\TeamProject\05.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>공정</t>
   </si>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +360,10 @@
   </si>
   <si>
     <t>WBS 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,9 +574,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,6 +584,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +879,7 @@
   <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,39 +891,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -945,28 +957,28 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="20" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -990,10 +1002,10 @@
       <c r="O3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="22" t="s">
         <v>71</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -1039,52 +1051,78 @@
         <v>85</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="4">
-        <v>43405</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+        <v>43864</v>
+      </c>
+      <c r="J4" s="16">
+        <v>43865</v>
+      </c>
+      <c r="K4" s="16">
+        <v>43866</v>
+      </c>
+      <c r="L4" s="16">
+        <v>43867</v>
+      </c>
+      <c r="M4" s="16">
+        <v>43868</v>
+      </c>
+      <c r="N4" s="16">
+        <v>43869</v>
+      </c>
+      <c r="O4" s="16">
+        <v>43870</v>
+      </c>
+      <c r="P4" s="22">
+        <v>43871</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>43872</v>
+      </c>
+      <c r="R4" s="16">
+        <v>43873</v>
+      </c>
+      <c r="S4" s="16">
+        <v>43874</v>
+      </c>
+      <c r="T4" s="16">
+        <v>43875</v>
+      </c>
+      <c r="U4" s="16">
+        <v>43876</v>
+      </c>
+      <c r="V4" s="16">
+        <v>43877</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -1103,7 +1141,7 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1117,18 +1155,18 @@
         <v>96</v>
       </c>
       <c r="F5" s="7">
-        <v>43405</v>
+        <v>43864</v>
       </c>
       <c r="G5" s="7">
-        <v>43407</v>
+        <v>43865</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1157,7 +1195,7 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1170,8 +1208,10 @@
       <c r="G6" s="7">
         <v>43407</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
@@ -1203,7 +1243,7 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1289,7 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1335,7 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1381,7 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1389,7 +1429,7 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1475,7 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1521,7 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1567,7 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1613,7 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1659,7 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1705,7 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1751,7 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1797,7 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1803,7 +1843,7 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1849,7 +1889,7 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1935,7 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1941,7 +1981,7 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1987,7 +2027,7 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2073,7 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2119,7 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2125,7 +2165,7 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
@@ -2171,7 +2211,7 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
@@ -2217,7 +2257,7 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2303,7 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="11" t="s">
         <v>88</v>
       </c>
@@ -2309,7 +2349,7 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
@@ -2355,7 +2395,7 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="12" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2441,7 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="12" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +2487,7 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="12" t="s">
         <v>30</v>
       </c>
@@ -2493,7 +2533,7 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="11" t="s">
         <v>89</v>
       </c>
@@ -2539,7 +2579,7 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="11" t="s">
         <v>90</v>
       </c>
@@ -2585,7 +2625,7 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2671,7 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="12" t="s">
         <v>32</v>
       </c>
@@ -2677,7 +2717,7 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="6" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2763,7 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="11" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2809,7 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="11" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2855,7 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
@@ -2861,7 +2901,7 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11" t="s">
         <v>37</v>
       </c>
@@ -2907,7 +2947,7 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11" t="s">
         <v>38</v>
       </c>
@@ -2953,7 +2993,7 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
@@ -2999,7 +3039,7 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="11" t="s">
         <v>40</v>
       </c>
@@ -3045,7 +3085,7 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="11" t="s">
         <v>41</v>
       </c>
@@ -3091,7 +3131,7 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="6" t="s">
         <v>42</v>
       </c>
@@ -3137,7 +3177,7 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="11" t="s">
         <v>43</v>
       </c>
@@ -3183,7 +3223,7 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="11" t="s">
         <v>44</v>
       </c>
@@ -3229,7 +3269,7 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="11" t="s">
         <v>45</v>
       </c>
@@ -3275,7 +3315,7 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="6" t="s">
         <v>46</v>
       </c>
@@ -3321,7 +3361,7 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11" t="s">
         <v>47</v>
       </c>
@@ -3367,7 +3407,7 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="12" t="s">
         <v>48</v>
       </c>
@@ -3413,7 +3453,7 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="12" t="s">
         <v>49</v>
       </c>
@@ -3459,7 +3499,7 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="11" t="s">
         <v>50</v>
       </c>
@@ -3505,7 +3545,7 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="12" t="s">
         <v>51</v>
       </c>
@@ -3551,7 +3591,7 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="12" t="s">
         <v>52</v>
       </c>
@@ -3597,7 +3637,7 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="11" t="s">
         <v>53</v>
       </c>
@@ -3643,7 +3683,7 @@
       <c r="AL59" s="8"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="12" t="s">
         <v>54</v>
       </c>
@@ -3689,7 +3729,7 @@
       <c r="AL60" s="8"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="12" t="s">
         <v>55</v>
       </c>
@@ -3735,7 +3775,7 @@
       <c r="AL61" s="8"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="11" t="s">
         <v>56</v>
       </c>
@@ -3781,7 +3821,7 @@
       <c r="AL62" s="8"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="12" t="s">
         <v>57</v>
       </c>
@@ -3827,7 +3867,7 @@
       <c r="AL63" s="8"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="11" t="s">
         <v>58</v>
       </c>
@@ -3873,7 +3913,7 @@
       <c r="AL64" s="8"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="12" t="s">
         <v>59</v>
       </c>
@@ -3919,7 +3959,7 @@
       <c r="AL65" s="8"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="12" t="s">
         <v>60</v>
       </c>
@@ -3965,7 +4005,7 @@
       <c r="AL66" s="8"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="11" t="s">
         <v>61</v>
       </c>
@@ -4011,7 +4051,7 @@
       <c r="AL67" s="8"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -4057,7 +4097,7 @@
       <c r="AL68" s="8"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="12" t="s">
         <v>62</v>
       </c>
@@ -4307,17 +4347,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A69"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A69"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>공정</t>
   </si>
@@ -47,323 +47,345 @@
     <t>프로젝트 착수 보고(Kick-Off)</t>
   </si>
   <si>
+    <t>분석</t>
+  </si>
+  <si>
+    <t>기능요구사항정의</t>
+  </si>
+  <si>
+    <t>설계</t>
+  </si>
+  <si>
+    <t>화면목록</t>
+  </si>
+  <si>
+    <t>UI설계가이드</t>
+  </si>
+  <si>
+    <t>개발</t>
+  </si>
+  <si>
+    <t>프레임워크</t>
+  </si>
+  <si>
+    <t>테스트 시나리오</t>
+  </si>
+  <si>
+    <t>단위테스트 시나리오</t>
+  </si>
+  <si>
+    <t>통합테스트 시나리오</t>
+  </si>
+  <si>
+    <t>단위테스트</t>
+  </si>
+  <si>
+    <t>기능테스트</t>
+  </si>
+  <si>
+    <t>통합테스트</t>
+  </si>
+  <si>
+    <t>성능테스트</t>
+  </si>
+  <si>
+    <t>산출물제출</t>
+  </si>
+  <si>
+    <t>1일</t>
+  </si>
+  <si>
+    <t>2일</t>
+  </si>
+  <si>
+    <t>3일</t>
+  </si>
+  <si>
+    <t>4일</t>
+  </si>
+  <si>
+    <t>5일</t>
+  </si>
+  <si>
+    <t>6일</t>
+  </si>
+  <si>
+    <t>7일</t>
+  </si>
+  <si>
+    <t>8일</t>
+  </si>
+  <si>
+    <t>9일</t>
+  </si>
+  <si>
+    <t>10일</t>
+  </si>
+  <si>
+    <t>11일</t>
+  </si>
+  <si>
+    <t>12일</t>
+  </si>
+  <si>
+    <t>13일</t>
+  </si>
+  <si>
+    <t>14일</t>
+  </si>
+  <si>
+    <t>15일</t>
+  </si>
+  <si>
+    <t>16일</t>
+  </si>
+  <si>
+    <t>17일</t>
+  </si>
+  <si>
+    <t>18일</t>
+  </si>
+  <si>
+    <t>19일</t>
+  </si>
+  <si>
+    <t>20일</t>
+  </si>
+  <si>
+    <t>21일</t>
+  </si>
+  <si>
+    <t>22일</t>
+  </si>
+  <si>
+    <t>23일</t>
+  </si>
+  <si>
+    <t>프로젝트 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>중간보고 및 확인</t>
-  </si>
-  <si>
-    <t>종료보고 및 확인</t>
-  </si>
-  <si>
-    <t>최종검수 확인</t>
-  </si>
-  <si>
-    <t>분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표자료 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현행업무/시스템분석</t>
-  </si>
-  <si>
-    <t>현업인터뷰</t>
-  </si>
-  <si>
-    <t>기능요구사항정의</t>
-  </si>
-  <si>
-    <t>개발환경분석(시스템,I/F,프레임워크)</t>
-  </si>
-  <si>
-    <t>설계</t>
-  </si>
-  <si>
-    <t>화면목록</t>
-  </si>
-  <si>
-    <t>프로그램목록설계</t>
-  </si>
-  <si>
-    <t>UI설계가이드</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>테이블정의</t>
-  </si>
-  <si>
-    <t>데이터소스 및 코드정의</t>
-  </si>
-  <si>
-    <t>상세화면설계</t>
-  </si>
-  <si>
-    <t>홈페이지</t>
-  </si>
-  <si>
-    <t>중고차광장(As-Is 선반영건)</t>
-  </si>
-  <si>
-    <t>중고차광장</t>
-  </si>
-  <si>
-    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경(Github/RPGMAKER/Trello)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공통분석/개발</t>
-  </si>
-  <si>
-    <t>시스템I/F</t>
-  </si>
-  <si>
-    <t>프레임워크</t>
-  </si>
-  <si>
-    <t>중고차광장(As-Is  선반영)</t>
-  </si>
-  <si>
-    <t>관리자모드(공통)</t>
-  </si>
-  <si>
-    <t>모바일 인터페이스</t>
-  </si>
-  <si>
-    <t>I/F변환 개발</t>
-  </si>
-  <si>
-    <t>테스트 시나리오</t>
-  </si>
-  <si>
-    <t>단위테스트 시나리오</t>
-  </si>
-  <si>
-    <t>통합테스트 시나리오</t>
-  </si>
-  <si>
-    <t>단위테스트</t>
-  </si>
-  <si>
-    <t>기능테스트</t>
-  </si>
-  <si>
-    <t>기능테스트 결함조치</t>
-  </si>
-  <si>
-    <t>통합테스트(1차)</t>
-  </si>
-  <si>
-    <t>통합테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통합테스트 결함조치</t>
-  </si>
-  <si>
-    <t>통합테스트(2차-연동 포함)</t>
-  </si>
-  <si>
-    <t>통합테스트 (IPCC, AFIS 연동 포함)</t>
-  </si>
-  <si>
-    <t>통합테스트 (IPCC, AFIS 연동 포함) 결함조치</t>
-  </si>
-  <si>
-    <t>성능테스트</t>
-  </si>
-  <si>
-    <t>이행 및 안정화</t>
-  </si>
-  <si>
-    <t>구현계획수립</t>
-  </si>
-  <si>
-    <t>릴리이즈 및 비상계획 수립</t>
-  </si>
-  <si>
-    <t>교육훈련계획 수립</t>
-  </si>
-  <si>
-    <t>컨버전 및 릴리이즈</t>
-  </si>
-  <si>
-    <t>데이터베이스 구축</t>
-  </si>
-  <si>
-    <t>데이터 컨버전</t>
-  </si>
-  <si>
-    <t>이행</t>
-  </si>
-  <si>
-    <t>이행 준비</t>
-  </si>
-  <si>
-    <t>시스템 이행</t>
-  </si>
-  <si>
-    <t>안정화</t>
-  </si>
-  <si>
-    <t>시스템 안정화</t>
-  </si>
-  <si>
-    <t>시스템사용교육</t>
-  </si>
-  <si>
-    <t>매뉴얼작성</t>
-  </si>
-  <si>
-    <t>교육훈련</t>
-  </si>
-  <si>
-    <t>인수인계</t>
-  </si>
-  <si>
-    <t>산출물제출</t>
-  </si>
-  <si>
-    <t>1일</t>
-  </si>
-  <si>
-    <t>2일</t>
-  </si>
-  <si>
-    <t>3일</t>
-  </si>
-  <si>
-    <t>4일</t>
-  </si>
-  <si>
-    <t>5일</t>
-  </si>
-  <si>
-    <t>6일</t>
-  </si>
-  <si>
-    <t>7일</t>
-  </si>
-  <si>
-    <t>8일</t>
-  </si>
-  <si>
-    <t>9일</t>
-  </si>
-  <si>
-    <t>10일</t>
-  </si>
-  <si>
-    <t>11일</t>
-  </si>
-  <si>
-    <t>12일</t>
-  </si>
-  <si>
-    <t>13일</t>
-  </si>
-  <si>
-    <t>14일</t>
-  </si>
-  <si>
-    <t>15일</t>
-  </si>
-  <si>
-    <t>16일</t>
-  </si>
-  <si>
-    <t>17일</t>
-  </si>
-  <si>
-    <t>18일</t>
-  </si>
-  <si>
-    <t>19일</t>
-  </si>
-  <si>
-    <t>20일</t>
-  </si>
-  <si>
-    <t>21일</t>
-  </si>
-  <si>
-    <t>22일</t>
-  </si>
-  <si>
-    <t>23일</t>
-  </si>
-  <si>
-    <t>프로젝트 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브화면 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBS 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능테스트 버그트래킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트(CBT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉원화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷씬제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰문서제작(포스트모텀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷씬 스토리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷씬 제작 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵deco 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩화면 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 R&amp;D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵이벤트 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷씬이벤트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 발사체스크립트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +605,15 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,14 +623,11 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,6 +636,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF32"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,6 +651,129 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="609600"/>
+          <a:ext cx="361950" cy="14211300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF32">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429875" y="590550"/>
+          <a:ext cx="361950" cy="14001750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,10 +1039,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL76"/>
+  <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,43 +1057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -957,130 +1123,130 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>91</v>
+      <c r="H3" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
@@ -1099,13 +1265,13 @@
       <c r="N4" s="16">
         <v>43869</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="23">
         <v>43870</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="17">
         <v>43871</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="17">
         <v>43872</v>
       </c>
       <c r="R4" s="16">
@@ -1141,7 +1307,7 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1152,7 +1318,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7">
         <v>43864</v>
@@ -1161,11 +1327,11 @@
         <v>43865</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1195,7 +1361,7 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1206,14 +1372,14 @@
         <v>43405</v>
       </c>
       <c r="G6" s="7">
-        <v>43407</v>
+        <v>43865</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1243,9 +1409,9 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1256,9 +1422,11 @@
       <c r="G7" s="7">
         <v>43407</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1289,9 +1457,9 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1302,9 +1470,11 @@
       <c r="G8" s="7">
         <v>43407</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1312,7 +1482,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1325,7 +1495,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="9"/>
+      <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -1335,9 +1505,9 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1348,7 +1518,9 @@
       <c r="G9" s="7">
         <v>43407</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1381,11 +1553,9 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1396,13 +1566,15 @@
       <c r="G10" s="7">
         <v>43407</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="H10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -1419,7 +1591,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="9"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
@@ -1429,26 +1601,28 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7">
-        <v>43405</v>
+        <v>43866</v>
       </c>
       <c r="G11" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>43868</v>
+      </c>
+      <c r="H11" s="13"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1475,9 +1649,9 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1488,10 +1662,10 @@
       <c r="G12" s="7">
         <v>43407</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -1521,27 +1695,27 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7">
-        <v>43405</v>
+        <v>43862</v>
       </c>
       <c r="G13" s="7">
         <v>43407</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="10"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -1567,9 +1741,9 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1580,7 +1754,7 @@
       <c r="G14" s="7">
         <v>43407</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
@@ -1613,9 +1787,9 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1626,16 +1800,16 @@
       <c r="G15" s="7">
         <v>43407</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -1659,9 +1833,9 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11" t="s">
-        <v>15</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1672,14 +1846,14 @@
       <c r="G16" s="7">
         <v>43407</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="10"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1705,9 +1879,9 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1718,13 +1892,15 @@
       <c r="G17" s="7">
         <v>43407</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -1751,9 +1927,9 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1764,13 +1940,15 @@
       <c r="G18" s="7">
         <v>43407</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -1797,9 +1975,9 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1808,19 +1986,19 @@
         <v>43405</v>
       </c>
       <c r="G19" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>43867</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -1843,9 +2021,9 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11" t="s">
-        <v>19</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1856,7 +2034,7 @@
       <c r="G20" s="7">
         <v>43407</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1867,10 +2045,10 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -1889,9 +2067,9 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1902,17 +2080,17 @@
       <c r="G21" s="7">
         <v>43407</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -1935,9 +2113,9 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11" t="s">
-        <v>21</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1948,17 +2126,17 @@
       <c r="G22" s="7">
         <v>43407</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -1981,9 +2159,9 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1994,17 +2172,17 @@
       <c r="G23" s="7">
         <v>43407</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -2027,9 +2205,9 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="12" t="s">
-        <v>23</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2040,23 +2218,23 @@
       <c r="G24" s="7">
         <v>43407</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -2073,9 +2251,9 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2086,23 +2264,23 @@
       <c r="G25" s="7">
         <v>43407</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -2119,36 +2297,32 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G26" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -2165,36 +2339,32 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
+      <c r="A27" s="18"/>
+      <c r="B27" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G27" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -2211,9 +2381,9 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2224,18 +2394,18 @@
       <c r="G28" s="7">
         <v>43407</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -2257,9 +2427,9 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2270,23 +2440,23 @@
       <c r="G29" s="7">
         <v>43407</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -2303,9 +2473,9 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="11" t="s">
-        <v>88</v>
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2316,7 +2486,7 @@
       <c r="G30" s="7">
         <v>43407</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2331,8 +2501,8 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
@@ -2349,9 +2519,9 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="12" t="s">
-        <v>22</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2362,7 +2532,7 @@
       <c r="G31" s="7">
         <v>43407</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2370,15 +2540,15 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -2395,9 +2565,9 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="12" t="s">
-        <v>29</v>
+      <c r="A32" s="18"/>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2408,7 +2578,7 @@
       <c r="G32" s="7">
         <v>43407</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2416,12 +2586,12 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
@@ -2441,9 +2611,9 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="12" t="s">
-        <v>24</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2454,7 +2624,7 @@
       <c r="G33" s="7">
         <v>43407</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2466,10 +2636,10 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -2487,9 +2657,9 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="12" t="s">
-        <v>30</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2500,7 +2670,7 @@
       <c r="G34" s="7">
         <v>43407</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2509,14 +2679,14 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
       <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
+      <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -2533,9 +2703,9 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="11" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2546,7 +2716,7 @@
       <c r="G35" s="7">
         <v>43407</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2554,15 +2724,15 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
+      <c r="X35" s="9"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -2579,9 +2749,9 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="11" t="s">
-        <v>90</v>
+      <c r="A36" s="18"/>
+      <c r="B36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2592,7 +2762,7 @@
       <c r="G36" s="7">
         <v>43407</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2600,16 +2770,16 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
@@ -2625,9 +2795,9 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2638,7 +2808,7 @@
       <c r="G37" s="7">
         <v>43407</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2646,16 +2816,16 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -2671,9 +2841,9 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="12" t="s">
-        <v>32</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2684,7 +2854,7 @@
       <c r="G38" s="7">
         <v>43407</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2692,16 +2862,16 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
@@ -2717,20 +2887,20 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G39" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H39" s="8"/>
+        <v>43874</v>
+      </c>
+      <c r="H39" s="13"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2746,9 +2916,9 @@
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
-      <c r="X39" s="9"/>
+      <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
+      <c r="Z39" s="9"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
@@ -2763,20 +2933,20 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G40" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H40" s="8"/>
+        <v>43873</v>
+      </c>
+      <c r="H40" s="13"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2792,9 +2962,9 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
-      <c r="X40" s="9"/>
+      <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
+      <c r="Z40" s="9"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
@@ -2809,20 +2979,20 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="11" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G41" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>43874</v>
+      </c>
+      <c r="H41" s="13"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2838,9 +3008,9 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
-      <c r="X41" s="9"/>
+      <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
+      <c r="Z41" s="9"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
@@ -2855,20 +3025,20 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="6" t="s">
-        <v>36</v>
+      <c r="A42" s="18"/>
+      <c r="B42" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G42" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>43874</v>
+      </c>
+      <c r="H42" s="13"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2885,10 +3055,10 @@
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -2901,9 +3071,9 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="11" t="s">
-        <v>37</v>
+      <c r="A43" s="18"/>
+      <c r="B43" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2914,7 +3084,7 @@
       <c r="G43" s="7">
         <v>43407</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2931,13 +3101,13 @@
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
@@ -2947,9 +3117,9 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="11" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2960,7 +3130,7 @@
       <c r="G44" s="7">
         <v>43407</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -2977,10 +3147,10 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
-      <c r="Y44" s="9"/>
+      <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -2993,9 +3163,9 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="6" t="s">
-        <v>39</v>
+      <c r="A45" s="18"/>
+      <c r="B45" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3006,7 +3176,7 @@
       <c r="G45" s="7">
         <v>43407</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="13"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -3024,8 +3194,8 @@
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="9"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
@@ -3039,9 +3209,9 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="11" t="s">
-        <v>40</v>
+      <c r="A46" s="18"/>
+      <c r="B46" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3052,7 +3222,7 @@
       <c r="G46" s="7">
         <v>43407</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3070,9 +3240,9 @@
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
+      <c r="AB46" s="9"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
@@ -3085,9 +3255,9 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3098,7 +3268,7 @@
       <c r="G47" s="7">
         <v>43407</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -3116,10 +3286,10 @@
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
-      <c r="Z47" s="9"/>
+      <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
+      <c r="AC47" s="9"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="8"/>
@@ -3131,9 +3301,9 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
+      <c r="A48" s="18"/>
+      <c r="B48" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3144,7 +3314,7 @@
       <c r="G48" s="7">
         <v>43407</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3163,8 +3333,8 @@
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
       <c r="AC48" s="9"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
@@ -3177,9 +3347,9 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="11" t="s">
-        <v>43</v>
+      <c r="A49" s="18"/>
+      <c r="B49" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3190,7 +3360,7 @@
       <c r="G49" s="7">
         <v>43407</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -3209,9 +3379,9 @@
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="9"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="8"/>
@@ -3222,21 +3392,17 @@
       <c r="AK49" s="8"/>
       <c r="AL49" s="8"/>
     </row>
-    <row r="50" spans="1:38" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="11" t="s">
-        <v>44</v>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G50" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -3255,9 +3421,9 @@
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="9"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="8"/>
@@ -3269,9 +3435,9 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="11" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3282,7 +3448,7 @@
       <c r="G51" s="7">
         <v>43407</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -3301,10 +3467,10 @@
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
@@ -3315,9 +3481,9 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="6" t="s">
-        <v>46</v>
+      <c r="A52" s="18"/>
+      <c r="B52" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3328,7 +3494,7 @@
       <c r="G52" s="7">
         <v>43407</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3347,11 +3513,11 @@
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
+      <c r="AE52" s="10"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
       <c r="AH52" s="8"/>
@@ -3361,9 +3527,9 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="11" t="s">
-        <v>47</v>
+      <c r="A53" s="18"/>
+      <c r="B53" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3374,7 +3540,7 @@
       <c r="G53" s="7">
         <v>43407</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -3393,10 +3559,10 @@
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
+      <c r="AD53" s="9"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
@@ -3407,9 +3573,9 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="12" t="s">
-        <v>48</v>
+      <c r="A54" s="18"/>
+      <c r="B54" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3420,7 +3586,7 @@
       <c r="G54" s="7">
         <v>43407</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -3439,11 +3605,11 @@
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
-      <c r="AA54" s="9"/>
+      <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
@@ -3453,9 +3619,9 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="12" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3466,7 +3632,7 @@
       <c r="G55" s="7">
         <v>43407</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="13"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -3486,10 +3652,10 @@
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
-      <c r="AB55" s="9"/>
+      <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
       <c r="AH55" s="8"/>
@@ -3499,20 +3665,20 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="11" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7">
-        <v>43405</v>
+        <v>43874</v>
       </c>
       <c r="G56" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>43875</v>
+      </c>
+      <c r="H56" s="13"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -3534,7 +3700,7 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="9"/>
-      <c r="AD56" s="10"/>
+      <c r="AD56" s="9"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="8"/>
@@ -3545,20 +3711,20 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="12" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
-        <v>43405</v>
+        <v>43874</v>
       </c>
       <c r="G57" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H57" s="8"/>
+        <v>43875</v>
+      </c>
+      <c r="H57" s="13"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -3591,20 +3757,20 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="12" t="s">
-        <v>52</v>
+      <c r="A58" s="18"/>
+      <c r="B58" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7">
-        <v>43405</v>
+        <v>43875</v>
       </c>
       <c r="G58" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H58" s="8"/>
+        <v>43875</v>
+      </c>
+      <c r="H58" s="13"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -3625,9 +3791,9 @@
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="8"/>
       <c r="AH58" s="8"/>
@@ -3637,20 +3803,20 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="11" t="s">
-        <v>53</v>
+      <c r="A59" s="18"/>
+      <c r="B59" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7">
-        <v>43405</v>
+        <v>43875</v>
       </c>
       <c r="G59" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>43875</v>
+      </c>
+      <c r="H59" s="13"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -3671,9 +3837,9 @@
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="9"/>
       <c r="AF59" s="8"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
@@ -3682,682 +3848,222 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G60" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="8"/>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G61" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="8"/>
-      <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G62" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="8"/>
-      <c r="AG62" s="8"/>
-      <c r="AH62" s="8"/>
-      <c r="AI62" s="8"/>
-      <c r="AJ62" s="8"/>
-      <c r="AK62" s="8"/>
-      <c r="AL62" s="8"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G63" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="9"/>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="8"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
-      <c r="AI63" s="8"/>
-      <c r="AJ63" s="8"/>
-      <c r="AK63" s="8"/>
-      <c r="AL63" s="8"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G64" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="8"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="8"/>
-      <c r="AJ64" s="8"/>
-      <c r="AK64" s="8"/>
-      <c r="AL64" s="8"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G65" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="8"/>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="8"/>
-      <c r="AI65" s="8"/>
-      <c r="AJ65" s="8"/>
-      <c r="AK65" s="8"/>
-      <c r="AL65" s="8"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G66" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="8"/>
-      <c r="AH66" s="8"/>
-      <c r="AI66" s="8"/>
-      <c r="AJ66" s="8"/>
-      <c r="AK66" s="8"/>
-      <c r="AL66" s="8"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G67" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="8"/>
-      <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G68" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="8"/>
-      <c r="AK68" s="8"/>
-      <c r="AL68" s="8"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="7">
-        <v>43405</v>
-      </c>
-      <c r="G69" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="8"/>
-      <c r="AI69" s="8"/>
-      <c r="AJ69" s="8"/>
-      <c r="AK69" s="8"/>
-      <c r="AL69" s="8"/>
-    </row>
-    <row r="70" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-    </row>
-    <row r="71" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-    </row>
-    <row r="72" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-    </row>
-    <row r="73" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-    </row>
-    <row r="74" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-    </row>
-    <row r="75" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-    </row>
-    <row r="76" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
+    <row r="60" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+    </row>
+    <row r="65" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+    </row>
+    <row r="66" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A69"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A59"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4366,5 +4072,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>공정</t>
   </si>
@@ -53,9 +53,6 @@
     <t>기능요구사항정의</t>
   </si>
   <si>
-    <t>설계</t>
-  </si>
-  <si>
     <t>화면목록</t>
   </si>
   <si>
@@ -386,6 +383,18 @@
   </si>
   <si>
     <t>전세현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계(알파버전 기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,11 +617,11 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,11 +632,11 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,16 +666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8086725" y="609600"/>
-          <a:ext cx="361950" cy="14211300"/>
+          <a:off x="7305675" y="600075"/>
+          <a:ext cx="361950" cy="11830050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,16 +725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -734,8 +743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10429875" y="590550"/>
-          <a:ext cx="361950" cy="14001750"/>
+          <a:off x="9639300" y="609600"/>
+          <a:ext cx="361950" cy="11830050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,10 +1051,10 @@
   <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1093,7 +1102,7 @@
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -1123,130 +1132,130 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>47</v>
+      <c r="H3" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="AF3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
@@ -1262,25 +1271,25 @@
       <c r="M4" s="16">
         <v>43868</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="17">
         <v>43869</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="17">
         <v>43870</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="18">
         <v>43871</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="18">
         <v>43872</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="18">
         <v>43873</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="18">
         <v>43874</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="18">
         <v>43875</v>
       </c>
       <c r="U4" s="16">
@@ -1307,7 +1316,7 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1318,7 +1327,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7">
         <v>43864</v>
@@ -1327,7 +1336,7 @@
         <v>43865</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1361,7 +1370,7 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>43865</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1409,9 +1418,9 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1423,7 +1432,7 @@
         <v>43407</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9"/>
@@ -1457,9 +1466,9 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1471,7 +1480,7 @@
         <v>43407</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
@@ -1505,9 +1514,9 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1519,7 +1528,7 @@
         <v>43407</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1530,7 +1539,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1543,7 +1552,7 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
@@ -1553,9 +1562,9 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1567,7 +1576,7 @@
         <v>43407</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1580,7 +1589,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
@@ -1591,7 +1600,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
@@ -1601,8 +1610,8 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>44</v>
+      <c r="A11" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -1621,8 +1630,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1649,9 +1658,9 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1695,15 +1704,15 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7">
-        <v>43862</v>
+        <v>43864</v>
       </c>
       <c r="G13" s="7">
         <v>43407</v>
@@ -1741,7 +1750,7 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1759,8 +1768,8 @@
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -1787,9 +1796,9 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1805,8 +1814,8 @@
       <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -1833,27 +1842,29 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G16" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>43869</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1879,9 +1890,9 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1893,14 +1904,14 @@
         <v>43407</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -1927,9 +1938,9 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1941,14 +1952,14 @@
         <v>43407</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -1975,9 +1986,9 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1988,13 +1999,15 @@
       <c r="G19" s="7">
         <v>43867</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2021,9 +2034,9 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2040,13 +2053,13 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="10"/>
@@ -2067,9 +2080,9 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2086,9 +2099,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -2113,9 +2126,9 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2132,9 +2145,9 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -2159,9 +2172,9 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2178,9 +2191,9 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -2205,18 +2218,18 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G24" s="7">
-        <v>43407</v>
+        <v>43873</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="10"/>
@@ -2227,10 +2240,10 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -2251,9 +2264,9 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2273,10 +2286,10 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -2297,15 +2310,19 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="24" t="s">
-        <v>98</v>
+      <c r="A26" s="24"/>
+      <c r="B26" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="7">
+        <v>43865</v>
+      </c>
+      <c r="G26" s="7">
+        <v>43866</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -2315,10 +2332,10 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -2339,15 +2356,19 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="24" t="s">
-        <v>97</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="7">
+        <v>43865</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43868</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -2357,10 +2378,10 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -2381,9 +2402,9 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2403,9 +2424,9 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -2427,9 +2448,9 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2452,7 +2473,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="9"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -2473,9 +2494,9 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2495,10 +2516,10 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="10"/>
@@ -2519,9 +2540,9 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2540,11 +2561,11 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
       <c r="U31" s="9"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
@@ -2565,9 +2586,9 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2586,11 +2607,11 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="9"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -2611,9 +2632,9 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2657,9 +2678,9 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2703,9 +2724,9 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2749,9 +2770,9 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2795,9 +2816,9 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2841,9 +2862,9 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2887,9 +2908,9 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2933,9 +2954,9 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2979,9 +3000,9 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3025,9 +3046,9 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3071,9 +3092,9 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3117,9 +3138,9 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3163,9 +3184,9 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3209,9 +3230,9 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3255,9 +3276,9 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3301,9 +3322,9 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3347,9 +3368,9 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3393,9 +3414,9 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3435,9 +3456,9 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3481,9 +3502,9 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3527,9 +3548,9 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3573,9 +3594,9 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3619,9 +3640,9 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3665,9 +3686,9 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3711,9 +3732,9 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3757,9 +3778,9 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3803,9 +3824,9 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -4053,17 +4074,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A59"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A59"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\TeamProject\contents5\TeamProject\05.일정관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\contents5\05.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377C581-4043-46CD-A39A-9BEFEAF530AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="375" yWindow="1200" windowWidth="27915" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>공정</t>
   </si>
@@ -250,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현행업무/시스템분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨셉리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨셉원화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컷씬제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,13 +388,45 @@
   </si>
   <si>
     <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPGMAKER_시스템분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉자료조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d"/>
   </numFmts>
@@ -666,25 +691,31 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7305675" y="600075"/>
+          <a:off x="8867775" y="600075"/>
           <a:ext cx="361950" cy="11830050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -733,17 +764,90 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9639300" y="609600"/>
+          <a:ext cx="361950" cy="11830050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50196"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="590550"/>
           <a:ext cx="361950" cy="11830050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1047,14 +1151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1729,9 @@
       <c r="G11" s="7">
         <v>43868</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1660,18 +1766,20 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7">
-        <v>43405</v>
+        <v>43864</v>
       </c>
       <c r="G12" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>43868</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1706,7 +1814,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1715,9 +1823,11 @@
         <v>43864</v>
       </c>
       <c r="G13" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H13" s="13"/>
+        <v>43866</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1758,12 +1868,14 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7">
-        <v>43405</v>
+        <v>43866</v>
       </c>
       <c r="G14" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H14" s="13"/>
+        <v>43867</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
@@ -1798,20 +1910,22 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G15" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H15" s="13"/>
+        <v>43867</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
@@ -1844,7 +1958,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1856,7 +1970,7 @@
         <v>43869</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1898,13 +2012,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G17" s="7">
-        <v>43407</v>
+        <v>43867</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1946,13 +2060,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G18" s="7">
-        <v>43407</v>
+        <v>43868</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -2000,7 +2114,7 @@
         <v>43867</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -2060,8 +2174,8 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -2082,7 +2196,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2128,7 +2242,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2244,10 +2358,10 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -2266,7 +2380,7 @@
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2279,21 +2393,21 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -2312,7 +2426,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2327,8 +2441,8 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2336,10 +2450,10 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -2358,7 +2472,7 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2374,18 +2488,18 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -2404,7 +2518,7 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2420,10 +2534,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="9"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -2450,7 +2564,7 @@
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2466,18 +2580,18 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="9"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -2496,7 +2610,7 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2516,12 +2630,12 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
@@ -2542,7 +2656,7 @@
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2561,12 +2675,12 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="9"/>
+      <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
@@ -2588,7 +2702,7 @@
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2607,12 +2721,12 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="9"/>
+      <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
@@ -2661,7 +2775,7 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-      <c r="X33" s="9"/>
+      <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -2707,7 +2821,7 @@
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
-      <c r="X34" s="9"/>
+      <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -2753,7 +2867,7 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="9"/>
+      <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -2788,10 +2902,10 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="M36" s="9"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -2800,7 +2914,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
@@ -2834,11 +2948,11 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -2846,7 +2960,7 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -2864,7 +2978,7 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2885,14 +2999,14 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
@@ -2910,7 +3024,7 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2931,7 +3045,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -2939,7 +3053,7 @@
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
@@ -2985,7 +3099,7 @@
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
@@ -3002,7 +3116,7 @@
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3031,7 +3145,7 @@
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
@@ -3078,8 +3192,8 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -3094,7 +3208,7 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3124,11 +3238,11 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
@@ -3140,16 +3254,16 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G44" s="7">
-        <v>43407</v>
+        <v>43871</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="10"/>
@@ -3170,8 +3284,8 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -3186,23 +3300,25 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G45" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H45" s="13"/>
+        <v>43870</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -3216,7 +3332,7 @@
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="9"/>
+      <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
@@ -3232,23 +3348,25 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G46" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H46" s="13"/>
+        <v>43870</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="M46" s="9"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -3263,7 +3381,7 @@
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
-      <c r="AB46" s="9"/>
+      <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
@@ -3278,18 +3396,20 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G47" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H47" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -3297,8 +3417,8 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -3310,7 +3430,7 @@
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="9"/>
+      <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="8"/>
@@ -3323,17 +3443,17 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
-      <c r="B48" s="12" t="s">
-        <v>79</v>
+      <c r="B48" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7">
-        <v>43405</v>
+        <v>43866</v>
       </c>
       <c r="G48" s="7">
-        <v>43407</v>
+        <v>43872</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="10"/>
@@ -3356,7 +3476,7 @@
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
-      <c r="AC48" s="9"/>
+      <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="8"/>
@@ -3370,18 +3490,20 @@
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="12" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7">
-        <v>43405</v>
+        <v>43866</v>
       </c>
       <c r="G49" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H49" s="13"/>
+        <v>43867</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -3390,7 +3512,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
@@ -3402,7 +3524,7 @@
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
-      <c r="AC49" s="9"/>
+      <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="8"/>
@@ -3416,14 +3538,20 @@
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="13"/>
+      <c r="F50" s="7">
+        <v>43871</v>
+      </c>
+      <c r="G50" s="7">
+        <v>43872</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -3431,7 +3559,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="P50" s="9"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
@@ -3444,7 +3572,7 @@
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
-      <c r="AC50" s="9"/>
+      <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="8"/>
@@ -3457,19 +3585,21 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
-      <c r="B51" s="11" t="s">
-        <v>80</v>
+      <c r="B51" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G51" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H51" s="13"/>
+        <v>43875</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -3477,7 +3607,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="P51" s="9"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -3490,8 +3620,8 @@
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
@@ -3503,19 +3633,21 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
-      <c r="B52" s="12" t="s">
-        <v>84</v>
+      <c r="B52" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G52" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H52" s="13"/>
+        <v>43875</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3536,8 +3668,8 @@
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
@@ -3550,26 +3682,28 @@
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G53" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H53" s="13"/>
+        <v>43871</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
@@ -3583,7 +3717,7 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
-      <c r="AD53" s="9"/>
+      <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
@@ -3595,19 +3729,21 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
-      <c r="B54" s="11" t="s">
-        <v>86</v>
+      <c r="B54" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="7">
-        <v>43405</v>
+        <v>43872</v>
       </c>
       <c r="G54" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H54" s="13"/>
+        <v>43875</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -3616,10 +3752,10 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3629,8 +3765,8 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
@@ -3641,17 +3777,17 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
-      <c r="B55" s="12" t="s">
-        <v>87</v>
+      <c r="B55" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G55" s="7">
-        <v>43407</v>
+        <v>43872</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="10"/>
@@ -3675,8 +3811,8 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
       <c r="AH55" s="8"/>
@@ -3687,29 +3823,31 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
-      <c r="B56" s="11" t="s">
-        <v>81</v>
+      <c r="B56" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="G56" s="7">
-        <v>43875</v>
-      </c>
-      <c r="H56" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="M56" s="9"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -3720,8 +3858,8 @@
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="8"/>
@@ -3734,18 +3872,20 @@
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="G57" s="7">
-        <v>43875</v>
-      </c>
-      <c r="H57" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -3755,9 +3895,9 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
@@ -3766,7 +3906,7 @@
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
-      <c r="AC57" s="9"/>
+      <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="8"/>
@@ -3780,18 +3920,20 @@
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G58" s="7">
         <v>43875</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -3813,8 +3955,8 @@
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="8"/>
       <c r="AH58" s="8"/>
@@ -3826,18 +3968,20 @@
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="12" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G59" s="7">
         <v>43875</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -3860,7 +4004,7 @@
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
-      <c r="AE59" s="9"/>
+      <c r="AE59" s="10"/>
       <c r="AF59" s="8"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
@@ -3869,63 +4013,97 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G60" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G61" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
     </row>
     <row r="62" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -4072,10 +4250,68 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
+    <row r="67" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A59"/>
+    <mergeCell ref="A11:A61"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\contents5\05.일정관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\TeamProject\contents5\TeamProject\05.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377C581-4043-46CD-A39A-9BEFEAF530AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1200" windowWidth="27915" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1200" windowWidth="27915" windowHeight="15105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>공정</t>
   </si>
@@ -63,24 +62,6 @@
     <t>개발</t>
   </si>
   <si>
-    <t>프레임워크</t>
-  </si>
-  <si>
-    <t>테스트 시나리오</t>
-  </si>
-  <si>
-    <t>단위테스트 시나리오</t>
-  </si>
-  <si>
-    <t>통합테스트 시나리오</t>
-  </si>
-  <si>
-    <t>단위테스트</t>
-  </si>
-  <si>
-    <t>기능테스트</t>
-  </si>
-  <si>
     <t>통합테스트</t>
   </si>
   <si>
@@ -167,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로그램개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시스템I/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통분석/개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능테스트 버그트래킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통합테스트(CBT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,14 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC 전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC 발사체스크립트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이경호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨셉자료조사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,13 +377,109 @@
   </si>
   <si>
     <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이시나리오 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양시영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 case 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양시영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터이동 플러그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 발사체 플러그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 무기액션 모듈시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양시영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양시영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC(보스)리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 조정 및 사운드연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 더미리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyber-heart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d"/>
   </numFmts>
@@ -587,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,7 +699,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,11 +713,11 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,23 +747,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,8 +771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867775" y="600075"/>
-          <a:ext cx="361950" cy="11830050"/>
+          <a:off x="9258300" y="590550"/>
+          <a:ext cx="361950" cy="11620500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,7 +820,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -772,7 +828,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +887,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -839,7 +895,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,14 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1170,45 +1226,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" s="1"/>
@@ -1236,130 +1294,130 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="AI3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="AK3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="AL3" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
@@ -1420,7 +1478,7 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1431,7 +1489,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7">
         <v>43864</v>
@@ -1440,12 +1498,12 @@
         <v>43865</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1474,7 +1532,7 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1482,13 +1540,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G6" s="7">
         <v>43865</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1522,21 +1580,21 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7">
-        <v>43405</v>
+        <v>43866</v>
       </c>
       <c r="G7" s="7">
-        <v>43407</v>
+        <v>43866</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9"/>
@@ -1570,21 +1628,21 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7">
-        <v>43405</v>
+        <v>43874</v>
       </c>
       <c r="G8" s="7">
-        <v>43407</v>
+        <v>43875</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
@@ -1618,21 +1676,21 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G9" s="7">
-        <v>43407</v>
+        <v>43873</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1666,21 +1724,21 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7">
-        <v>43405</v>
+        <v>43875</v>
       </c>
       <c r="G10" s="7">
-        <v>43407</v>
+        <v>43875</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1714,8 +1772,8 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>43</v>
+      <c r="A11" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -1730,7 +1788,7 @@
         <v>43868</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1764,9 +1822,9 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1778,7 +1836,7 @@
         <v>43868</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
@@ -1812,9 +1870,9 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1826,7 +1884,7 @@
         <v>43866</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9"/>
@@ -1860,7 +1918,7 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1932,7 @@
         <v>43867</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1908,9 +1966,9 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1922,7 +1980,7 @@
         <v>43867</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9"/>
@@ -1956,9 +2014,9 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1970,7 +2028,7 @@
         <v>43869</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2004,7 +2062,7 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2076,7 @@
         <v>43867</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2052,9 +2110,9 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2066,7 +2124,7 @@
         <v>43868</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -2100,7 +2158,7 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
@@ -2108,13 +2166,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G19" s="7">
         <v>43867</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -2148,7 +2206,7 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -2156,23 +2214,23 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G20" s="7">
-        <v>43407</v>
+        <v>43865</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -2194,20 +2252,22 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7">
-        <v>43405</v>
+        <v>43864</v>
       </c>
       <c r="G21" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H21" s="13"/>
+        <v>43868</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2240,20 +2300,22 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="12" t="s">
-        <v>68</v>
+      <c r="A22" s="19"/>
+      <c r="B22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G22" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H22" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2286,20 +2348,22 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="12" t="s">
-        <v>11</v>
+      <c r="A23" s="19"/>
+      <c r="B23" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G23" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H23" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2332,9 +2396,9 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="11" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2345,7 +2409,9 @@
       <c r="G24" s="7">
         <v>43873</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2378,20 +2444,22 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="12" t="s">
-        <v>91</v>
+      <c r="A25" s="19"/>
+      <c r="B25" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G25" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H25" s="13"/>
+        <v>43871</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2424,9 +2492,9 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="19" t="s">
-        <v>95</v>
+      <c r="A26" s="19"/>
+      <c r="B26" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2437,7 +2505,9 @@
       <c r="G26" s="7">
         <v>43866</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2470,28 +2540,30 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="19" t="s">
-        <v>94</v>
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="G27" s="7">
-        <v>43868</v>
-      </c>
-      <c r="H27" s="13"/>
+        <v>43866</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="9"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -2516,20 +2588,22 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="12" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="7">
-        <v>43405</v>
+        <v>43865</v>
       </c>
       <c r="G28" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H28" s="13"/>
+        <v>43868</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2562,20 +2636,22 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="12" t="s">
-        <v>92</v>
+      <c r="A29" s="19"/>
+      <c r="B29" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7">
-        <v>43405</v>
+        <v>43867</v>
       </c>
       <c r="G29" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H29" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2584,7 +2660,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
@@ -2608,30 +2684,32 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="12" t="s">
-        <v>93</v>
+      <c r="A30" s="19"/>
+      <c r="B30" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G30" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H30" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
@@ -2654,20 +2732,22 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G31" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H31" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2675,9 +2755,9 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
@@ -2700,20 +2780,22 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G32" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>43871</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2746,20 +2828,22 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="6" t="s">
-        <v>12</v>
+      <c r="A33" s="19"/>
+      <c r="B33" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G33" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H33" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2767,7 +2851,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -2792,18 +2876,18 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
-        <v>13</v>
+      <c r="A34" s="19"/>
+      <c r="B34" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7">
-        <v>43405</v>
+        <v>43871</v>
       </c>
       <c r="G34" s="7">
-        <v>43407</v>
+        <v>43872</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
@@ -2838,20 +2922,22 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11" t="s">
-        <v>14</v>
+      <c r="A35" s="19"/>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G35" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H35" s="13"/>
+        <v>43874</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2861,7 +2947,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -2884,28 +2970,28 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="6" t="s">
-        <v>15</v>
+      <c r="A36" s="19"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G36" s="7">
-        <v>43407</v>
+        <v>43873</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="9"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -2930,29 +3016,31 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="11" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G37" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H37" s="13"/>
+        <v>43874</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -2976,20 +3064,22 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="11" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="7">
-        <v>43405</v>
+        <v>43873</v>
       </c>
       <c r="G38" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H38" s="13"/>
+        <v>43874</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2999,7 +3089,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="9"/>
+      <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -3022,20 +3112,22 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7">
-        <v>43873</v>
+        <v>43866</v>
       </c>
       <c r="G39" s="7">
         <v>43874</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -3045,7 +3137,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="9"/>
+      <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -3068,20 +3160,22 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="11" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="G40" s="7">
-        <v>43873</v>
-      </c>
-      <c r="H40" s="13"/>
+        <v>43872</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -3114,25 +3208,27 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11" t="s">
-        <v>75</v>
+      <c r="A41" s="19"/>
+      <c r="B41" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="G41" s="7">
-        <v>43874</v>
-      </c>
-      <c r="H41" s="13"/>
+        <v>43870</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -3160,25 +3256,27 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="11" t="s">
-        <v>18</v>
+      <c r="A42" s="19"/>
+      <c r="B42" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="G42" s="7">
-        <v>43874</v>
-      </c>
-      <c r="H42" s="13"/>
+        <v>43870</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="M42" s="9"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -3206,25 +3304,27 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="6" t="s">
-        <v>70</v>
+      <c r="A43" s="19"/>
+      <c r="B43" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7">
-        <v>43405</v>
+        <v>43868</v>
       </c>
       <c r="G43" s="7">
-        <v>43407</v>
-      </c>
-      <c r="H43" s="13"/>
+        <v>43868</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="M43" s="9"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -3252,20 +3352,22 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="11" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7">
-        <v>43867</v>
+        <v>43871</v>
       </c>
       <c r="G44" s="7">
-        <v>43871</v>
-      </c>
-      <c r="H44" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -3273,8 +3375,8 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
@@ -3298,31 +3400,31 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="12" t="s">
-        <v>73</v>
+      <c r="A45" s="19"/>
+      <c r="B45" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7">
-        <v>43867</v>
+        <v>43869</v>
       </c>
       <c r="G45" s="7">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -3346,27 +3448,25 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="12" t="s">
-        <v>74</v>
+      <c r="A46" s="19"/>
+      <c r="B46" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="G46" s="7">
-        <v>43870</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>102</v>
-      </c>
+        <v>43872</v>
+      </c>
+      <c r="H46" s="13"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="9"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -3394,21 +3494,21 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11" t="s">
-        <v>105</v>
+      <c r="A47" s="19"/>
+      <c r="B47" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="G47" s="7">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -3417,7 +3517,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="9"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
@@ -3442,20 +3542,22 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="11" t="s">
-        <v>72</v>
+      <c r="A48" s="19"/>
+      <c r="B48" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7">
-        <v>43866</v>
+        <v>43871</v>
       </c>
       <c r="G48" s="7">
         <v>43872</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3463,8 +3565,8 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -3488,21 +3590,21 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="12" t="s">
-        <v>106</v>
+      <c r="A49" s="19"/>
+      <c r="B49" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7">
-        <v>43866</v>
+        <v>43871</v>
       </c>
       <c r="G49" s="7">
-        <v>43867</v>
+        <v>43875</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3511,10 +3613,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
@@ -3536,21 +3638,21 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="12" t="s">
-        <v>86</v>
+      <c r="A50" s="19"/>
+      <c r="B50" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="G50" s="7">
-        <v>43872</v>
+        <v>43875</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -3559,10 +3661,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="9"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
@@ -3584,33 +3686,33 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="12" t="s">
-        <v>87</v>
+      <c r="A51" s="19"/>
+      <c r="B51" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7">
+        <v>43868</v>
+      </c>
+      <c r="G51" s="7">
         <v>43871</v>
       </c>
-      <c r="G51" s="7">
-        <v>43875</v>
-      </c>
       <c r="H51" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="M51" s="9"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
@@ -3632,21 +3734,21 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="11" t="s">
-        <v>78</v>
+      <c r="A52" s="19"/>
+      <c r="B52" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="G52" s="7">
         <v>43875</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -3656,10 +3758,10 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
@@ -3680,30 +3782,30 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="12" t="s">
-        <v>82</v>
+      <c r="A53" s="19"/>
+      <c r="B53" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="G53" s="7">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="9"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="9"/>
+      <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
@@ -3728,34 +3830,34 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="12" t="s">
-        <v>83</v>
+      <c r="A54" s="19"/>
+      <c r="B54" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="7">
+        <v>43868</v>
+      </c>
+      <c r="G54" s="7">
         <v>43872</v>
       </c>
-      <c r="G54" s="7">
-        <v>43875</v>
-      </c>
       <c r="H54" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="M54" s="9"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3776,20 +3878,22 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11" t="s">
-        <v>84</v>
+      <c r="A55" s="19"/>
+      <c r="B55" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="G55" s="7">
-        <v>43872</v>
-      </c>
-      <c r="H55" s="13"/>
+        <v>43873</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -3799,9 +3903,9 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -3822,32 +3926,32 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="12" t="s">
-        <v>85</v>
+      <c r="A56" s="19"/>
+      <c r="B56" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7">
-        <v>43868</v>
+        <v>43874</v>
       </c>
       <c r="G56" s="7">
-        <v>43872</v>
+        <v>43875</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="9"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -3870,21 +3974,21 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="12" t="s">
-        <v>103</v>
+      <c r="A57" s="19"/>
+      <c r="B57" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="G57" s="7">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -3895,7 +3999,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-      <c r="R57" s="9"/>
+      <c r="R57" s="10"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="10"/>
@@ -3918,21 +4022,21 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="G58" s="7">
         <v>43875</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -3945,7 +4049,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -3966,21 +4070,21 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="12" t="s">
-        <v>80</v>
+      <c r="A59" s="19"/>
+      <c r="B59" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="G59" s="7">
         <v>43875</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -3993,7 +4097,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
@@ -4013,97 +4117,63 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7">
-        <v>43875</v>
-      </c>
-      <c r="G60" s="7">
-        <v>43875</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="8"/>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7">
-        <v>43875</v>
-      </c>
-      <c r="G61" s="7">
-        <v>43875</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="8"/>
-      <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
+    <row r="60" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -4250,77 +4320,19 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-    </row>
-    <row r="68" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A61"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A59"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -1210,11 +1210,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="M32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:AE1"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2758,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="10"/>
+      <c r="S31" s="9"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -2805,8 +2805,8 @@
       <c r="O32" s="10"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -2853,7 +2853,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="R33" s="9"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
@@ -3425,8 +3425,8 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>공정</t>
   </si>
@@ -473,6 +473,10 @@
   </si>
   <si>
     <t>Cyber-heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +548,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -640,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,9 +690,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,10 +709,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,11 +723,23 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,23 +769,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>324971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>149039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,8 +793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="590550"/>
-          <a:ext cx="361950" cy="11620500"/>
+          <a:off x="10070727" y="560295"/>
+          <a:ext cx="361950" cy="12004862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,23 +834,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20732</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>332814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>382682</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -836,8 +858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9639300" y="609600"/>
-          <a:ext cx="361950" cy="11830050"/>
+          <a:off x="10856820" y="568138"/>
+          <a:ext cx="361950" cy="12004862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,7 +917,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,10 +1233,10 @@
   <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="M32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,45 +1248,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="2"/>
@@ -1294,28 +1316,28 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1333,25 +1355,25 @@
       <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1410,54 +1432,54 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>43865</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>43866</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>43867</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>43868</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>43869</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <v>43870</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <v>43871</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>43872</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <v>43873</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>43874</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="17">
         <v>43875</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>43876</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <v>43877</v>
       </c>
       <c r="W4" s="4"/>
@@ -1478,17 +1500,17 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="7">
@@ -1497,7 +1519,7 @@
       <c r="G5" s="7">
         <v>43865</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="9"/>
@@ -1532,8 +1554,8 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8"/>
@@ -1545,7 +1567,7 @@
       <c r="G6" s="7">
         <v>43865</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="9"/>
@@ -1580,8 +1602,8 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="8"/>
@@ -1593,7 +1615,7 @@
       <c r="G7" s="7">
         <v>43866</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="10"/>
@@ -1628,7 +1650,7 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1663,7 @@
       <c r="G8" s="7">
         <v>43875</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="10"/>
@@ -1654,7 +1676,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -1676,8 +1698,8 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="8"/>
@@ -1689,7 +1711,7 @@
       <c r="G9" s="7">
         <v>43873</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="10"/>
@@ -1724,7 +1746,7 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1759,7 @@
       <c r="G10" s="7">
         <v>43875</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="10"/>
@@ -1772,10 +1794,10 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8"/>
@@ -1787,7 +1809,7 @@
       <c r="G11" s="7">
         <v>43868</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I11" s="9"/>
@@ -1822,8 +1844,8 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="8"/>
@@ -1835,7 +1857,7 @@
       <c r="G12" s="7">
         <v>43868</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I12" s="9"/>
@@ -1870,8 +1892,8 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="8"/>
@@ -1883,7 +1905,7 @@
       <c r="G13" s="7">
         <v>43866</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="10"/>
@@ -1918,8 +1940,8 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="8"/>
@@ -1931,7 +1953,7 @@
       <c r="G14" s="7">
         <v>43867</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="10"/>
@@ -1966,8 +1988,8 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="8"/>
@@ -1979,7 +2001,7 @@
       <c r="G15" s="7">
         <v>43867</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="10"/>
@@ -2014,8 +2036,8 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="8"/>
@@ -2027,7 +2049,7 @@
       <c r="G16" s="7">
         <v>43869</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="10"/>
@@ -2062,8 +2084,8 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="8"/>
@@ -2075,7 +2097,7 @@
       <c r="G17" s="7">
         <v>43867</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I17" s="10"/>
@@ -2110,8 +2132,8 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="8"/>
@@ -2123,7 +2145,7 @@
       <c r="G18" s="7">
         <v>43868</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="10"/>
@@ -2158,8 +2180,8 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="8"/>
@@ -2171,7 +2193,7 @@
       <c r="G19" s="7">
         <v>43867</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="10"/>
@@ -2206,7 +2228,7 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -2219,7 +2241,7 @@
       <c r="G20" s="7">
         <v>43865</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="10"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2252,8 +2274,8 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="8"/>
@@ -2265,7 +2287,7 @@
       <c r="G21" s="7">
         <v>43868</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>97</v>
       </c>
       <c r="I21" s="10"/>
@@ -2300,8 +2322,8 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="8"/>
@@ -2313,19 +2335,19 @@
       <c r="G22" s="7">
         <v>43872</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -2348,8 +2370,8 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="8"/>
@@ -2361,7 +2383,7 @@
       <c r="G23" s="7">
         <v>43873</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>104</v>
       </c>
       <c r="I23" s="10"/>
@@ -2396,7 +2418,7 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="11" t="s">
         <v>100</v>
       </c>
@@ -2409,7 +2431,7 @@
       <c r="G24" s="7">
         <v>43873</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="I24" s="10"/>
@@ -2444,8 +2466,8 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="8"/>
@@ -2457,7 +2479,7 @@
       <c r="G25" s="7">
         <v>43871</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>109</v>
       </c>
       <c r="I25" s="10"/>
@@ -2492,8 +2514,8 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="8"/>
@@ -2505,7 +2527,7 @@
       <c r="G26" s="7">
         <v>43866</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>114</v>
       </c>
       <c r="I26" s="10"/>
@@ -2540,8 +2562,8 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="8"/>
@@ -2553,7 +2575,7 @@
       <c r="G27" s="7">
         <v>43866</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="10"/>
@@ -2588,8 +2610,8 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="8"/>
@@ -2601,7 +2623,7 @@
       <c r="G28" s="7">
         <v>43868</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>113</v>
       </c>
       <c r="I28" s="10"/>
@@ -2636,8 +2658,8 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="8"/>
@@ -2649,7 +2671,7 @@
       <c r="G29" s="7">
         <v>43873</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="10"/>
@@ -2684,8 +2706,8 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="8"/>
@@ -2697,7 +2719,7 @@
       <c r="G30" s="7">
         <v>43872</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="10"/>
@@ -2732,7 +2754,7 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>84</v>
       </c>
@@ -2745,7 +2767,7 @@
       <c r="G31" s="7">
         <v>43872</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="10"/>
@@ -2780,7 +2802,7 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>79</v>
       </c>
@@ -2791,9 +2813,9 @@
         <v>43871</v>
       </c>
       <c r="G32" s="7">
-        <v>43871</v>
-      </c>
-      <c r="H32" s="13" t="s">
+        <v>43874</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="10"/>
@@ -2828,7 +2850,7 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="11" t="s">
         <v>80</v>
       </c>
@@ -2839,9 +2861,9 @@
         <v>43871</v>
       </c>
       <c r="G33" s="7">
-        <v>43872</v>
-      </c>
-      <c r="H33" s="13" t="s">
+        <v>43875</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="10"/>
@@ -2876,7 +2898,7 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
@@ -2889,7 +2911,7 @@
       <c r="G34" s="7">
         <v>43872</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2922,7 +2944,7 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
@@ -2935,7 +2957,7 @@
       <c r="G35" s="7">
         <v>43874</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I35" s="10"/>
@@ -2970,7 +2992,7 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +3005,7 @@
       <c r="G36" s="7">
         <v>43873</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -3016,7 +3038,7 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11" t="s">
         <v>67</v>
       </c>
@@ -3029,7 +3051,7 @@
       <c r="G37" s="7">
         <v>43874</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>105</v>
       </c>
       <c r="I37" s="10"/>
@@ -3064,7 +3086,7 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3099,7 @@
       <c r="G38" s="7">
         <v>43874</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I38" s="10"/>
@@ -3090,7 +3112,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -3112,7 +3134,7 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
@@ -3125,7 +3147,7 @@
       <c r="G39" s="7">
         <v>43874</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>115</v>
       </c>
       <c r="I39" s="10"/>
@@ -3160,7 +3182,7 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
         <v>63</v>
       </c>
@@ -3173,7 +3195,7 @@
       <c r="G40" s="7">
         <v>43872</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>115</v>
       </c>
       <c r="I40" s="10"/>
@@ -3208,8 +3230,8 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="8"/>
@@ -3221,7 +3243,7 @@
       <c r="G41" s="7">
         <v>43870</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I41" s="10"/>
@@ -3256,8 +3278,8 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="8"/>
@@ -3269,7 +3291,7 @@
       <c r="G42" s="7">
         <v>43870</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="10"/>
@@ -3304,8 +3326,8 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="8"/>
@@ -3315,9 +3337,9 @@
         <v>43868</v>
       </c>
       <c r="G43" s="7">
-        <v>43868</v>
-      </c>
-      <c r="H43" s="13" t="s">
+        <v>43874</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I43" s="10"/>
@@ -3330,7 +3352,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="S43" s="9"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -3352,7 +3374,7 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
         <v>117</v>
       </c>
@@ -3365,7 +3387,7 @@
       <c r="G44" s="7">
         <v>43873</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I44" s="10"/>
@@ -3400,7 +3422,7 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="11" t="s">
         <v>118</v>
       </c>
@@ -3413,7 +3435,7 @@
       <c r="G45" s="7">
         <v>43871</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>119</v>
       </c>
       <c r="I45" s="10"/>
@@ -3448,7 +3470,7 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
         <v>64</v>
       </c>
@@ -3461,7 +3483,7 @@
       <c r="G46" s="7">
         <v>43872</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3494,8 +3516,8 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="8"/>
@@ -3507,7 +3529,7 @@
       <c r="G47" s="7">
         <v>43867</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I47" s="10"/>
@@ -3542,8 +3564,8 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="24" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="8"/>
@@ -3555,7 +3577,7 @@
       <c r="G48" s="7">
         <v>43872</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I48" s="10"/>
@@ -3590,8 +3612,8 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="8"/>
@@ -3603,7 +3625,7 @@
       <c r="G49" s="7">
         <v>43875</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I49" s="10"/>
@@ -3638,7 +3660,7 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="11" t="s">
         <v>69</v>
       </c>
@@ -3651,7 +3673,7 @@
       <c r="G50" s="7">
         <v>43875</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I50" s="10"/>
@@ -3686,8 +3708,8 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="8"/>
@@ -3699,7 +3721,7 @@
       <c r="G51" s="7">
         <v>43871</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I51" s="10"/>
@@ -3734,8 +3756,8 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="8"/>
@@ -3747,7 +3769,7 @@
       <c r="G52" s="7">
         <v>43875</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I52" s="10"/>
@@ -3782,7 +3804,7 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
         <v>75</v>
       </c>
@@ -3795,7 +3817,7 @@
       <c r="G53" s="7">
         <v>43872</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>101</v>
       </c>
       <c r="I53" s="10"/>
@@ -3830,8 +3852,8 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="8"/>
@@ -3843,7 +3865,7 @@
       <c r="G54" s="7">
         <v>43872</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I54" s="10"/>
@@ -3856,7 +3878,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="10"/>
+      <c r="S54" s="9"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -3878,8 +3900,8 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="8"/>
@@ -3891,7 +3913,7 @@
       <c r="G55" s="7">
         <v>43873</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="10"/>
@@ -3926,7 +3948,7 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
         <v>70</v>
       </c>
@@ -3939,7 +3961,7 @@
       <c r="G56" s="7">
         <v>43875</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I56" s="10"/>
@@ -3974,8 +3996,8 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="8"/>
@@ -3987,8 +4009,8 @@
       <c r="G57" s="7">
         <v>43875</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>96</v>
+      <c r="H57" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -4022,7 +4044,7 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4057,7 @@
       <c r="G58" s="7">
         <v>43875</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>97</v>
       </c>
       <c r="I58" s="10"/>
@@ -4070,8 +4092,8 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="8"/>
@@ -4083,7 +4105,7 @@
       <c r="G59" s="7">
         <v>43875</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="12" t="s">
         <v>97</v>
       </c>
       <c r="I59" s="10"/>
@@ -4322,17 +4344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A59"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A59"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>공정</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>이경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITCH.io 런칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩크레딧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,23 +720,8 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +737,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,7 +789,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>149039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -785,7 +797,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +854,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>382682</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -850,7 +862,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,7 +921,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -917,7 +929,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,13 +1242,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL66"/>
+  <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1248,45 +1260,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="2"/>
@@ -1316,28 +1328,28 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1432,14 +1444,14 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
@@ -1482,11 +1494,21 @@
       <c r="V4" s="15">
         <v>43877</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="W4" s="4">
+        <v>43878</v>
+      </c>
+      <c r="X4" s="4">
+        <v>43879</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>43880</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>43881</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>43882</v>
+      </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -1503,11 +1525,11 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="13" t="s">
@@ -1555,10 +1577,12 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7">
@@ -1603,10 +1627,12 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7">
@@ -1654,7 +1680,9 @@
       <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="14">
+        <v>0.95</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7">
@@ -1699,10 +1727,12 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7">
@@ -1747,10 +1777,12 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7">
@@ -1794,28 +1826,20 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>43866</v>
-      </c>
-      <c r="G11" s="7">
-        <v>43868</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1823,7 +1847,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -1844,15 +1868,19 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="A12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7">
-        <v>43864</v>
+        <v>43866</v>
       </c>
       <c r="G12" s="7">
         <v>43868</v>
@@ -1861,9 +1889,9 @@
         <v>96</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1893,24 +1921,26 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
-      <c r="B13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7">
         <v>43864</v>
       </c>
       <c r="G13" s="7">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1941,25 +1971,27 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7">
+        <v>43864</v>
+      </c>
+      <c r="G14" s="7">
         <v>43866</v>
-      </c>
-      <c r="G14" s="7">
-        <v>43867</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -1989,14 +2021,16 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
-      <c r="B15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="B15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="G15" s="7">
         <v>43867</v>
@@ -2005,7 +2039,7 @@
         <v>95</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
@@ -2037,27 +2071,29 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="B16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="7">
+        <v>43865</v>
+      </c>
+      <c r="G16" s="7">
         <v>43867</v>
       </c>
-      <c r="G16" s="7">
-        <v>43869</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -2085,27 +2121,29 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
-      <c r="B17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7">
         <v>43867</v>
       </c>
       <c r="G17" s="7">
-        <v>43867</v>
+        <v>43869</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -2133,26 +2171,28 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="8"/>
+      <c r="B18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="G18" s="7">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2181,26 +2221,28 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8"/>
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="G19" s="7">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -2229,30 +2271,34 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7">
-        <v>43865</v>
+        <v>43867</v>
       </c>
       <c r="G20" s="7">
-        <v>43865</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>43867</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -2275,21 +2321,19 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
-      <c r="B21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="G21" s="7">
-        <v>43868</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>97</v>
-      </c>
+        <v>43865</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="10"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2297,10 +2341,10 @@
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -2323,31 +2367,33 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="8"/>
+      <c r="B22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7">
+        <v>43864</v>
+      </c>
+      <c r="G22" s="7">
         <v>43868</v>
       </c>
-      <c r="G22" s="7">
-        <v>43872</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -2371,31 +2417,33 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
-      <c r="B23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="B23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="G23" s="7">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -2419,20 +2467,22 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
-      <c r="B24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7">
-        <v>43865</v>
+        <v>43871</v>
       </c>
       <c r="G24" s="7">
         <v>43873</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2467,29 +2517,27 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
-      <c r="B25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <v>43865</v>
       </c>
       <c r="G25" s="7">
-        <v>43871</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>109</v>
-      </c>
+        <v>43873</v>
+      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -2515,29 +2563,31 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="B26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <v>43865</v>
       </c>
       <c r="G26" s="7">
-        <v>43866</v>
+        <v>43871</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -2563,20 +2613,22 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
-      <c r="B27" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="B27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="G27" s="7">
         <v>43866</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -2611,29 +2663,31 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
-      <c r="B28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="8"/>
+      <c r="B28" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="7">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="G28" s="7">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="9"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -2659,20 +2713,22 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="8"/>
+      <c r="B29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="G29" s="7">
-        <v>43873</v>
+        <v>43868</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -2707,20 +2763,22 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="G30" s="7">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2730,7 +2788,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
@@ -2755,32 +2813,34 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
-      <c r="B31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="G31" s="7">
         <v>43872</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -2803,20 +2863,22 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
-      <c r="B32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="B32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7">
         <v>43871</v>
       </c>
       <c r="G32" s="7">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2825,8 +2887,8 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
@@ -2851,20 +2913,22 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
-      <c r="B33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="8"/>
+      <c r="B33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7">
         <v>43871</v>
       </c>
       <c r="G33" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2876,7 +2940,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="10"/>
+      <c r="S33" s="9"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -2899,19 +2963,23 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
-      <c r="B34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="B34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7">
         <v>43871</v>
       </c>
       <c r="G34" s="7">
-        <v>43872</v>
-      </c>
-      <c r="H34" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2919,9 +2987,9 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="P34" s="9"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -2946,20 +3014,18 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="C35" s="14"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="G35" s="7">
-        <v>43874</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>106</v>
-      </c>
+        <v>43872</v>
+      </c>
+      <c r="H35" s="12"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2969,7 +3035,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="9"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -2993,19 +3059,23 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="7">
         <v>43873</v>
       </c>
       <c r="G36" s="7">
-        <v>43873</v>
-      </c>
-      <c r="H36" s="12"/>
+        <v>43874</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -3015,7 +3085,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -3039,21 +3109,21 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
-      <c r="B37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7">
         <v>43873</v>
       </c>
       <c r="G37" s="7">
-        <v>43874</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>105</v>
-      </c>
+        <v>43873</v>
+      </c>
+      <c r="H37" s="12"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -3087,10 +3157,12 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
-      <c r="B38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="7">
@@ -3100,7 +3172,7 @@
         <v>43874</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -3112,7 +3184,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="9"/>
+      <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -3135,20 +3207,22 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
-      <c r="B39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="B39" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7">
-        <v>43866</v>
+        <v>43873</v>
       </c>
       <c r="G39" s="7">
         <v>43874</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -3160,7 +3234,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="9"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -3183,17 +3257,17 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
-      <c r="B40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="8"/>
+      <c r="B40" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="14"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="G40" s="7">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>115</v>
@@ -3231,26 +3305,28 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
-      <c r="B41" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="B41" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7">
         <v>43867</v>
       </c>
       <c r="G41" s="7">
-        <v>43870</v>
+        <v>43872</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -3279,10 +3355,12 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
-      <c r="B42" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="B42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7">
@@ -3292,12 +3370,12 @@
         <v>43870</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -3327,17 +3405,19 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="B43" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="G43" s="7">
-        <v>43874</v>
+        <v>43870</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>91</v>
@@ -3352,7 +3432,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -3375,17 +3455,19 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="B44" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="G44" s="7">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>91</v>
@@ -3394,13 +3476,13 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="M44" s="9"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
+      <c r="S44" s="9"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -3423,32 +3505,32 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="8"/>
+      <c r="B45" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="14"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7">
-        <v>43869</v>
+        <v>43871</v>
       </c>
       <c r="G45" s="7">
-        <v>43871</v>
+        <v>43873</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
@@ -3471,19 +3553,23 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="8"/>
+      <c r="B46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7">
-        <v>43866</v>
+        <v>43881</v>
       </c>
       <c r="G46" s="7">
-        <v>43872</v>
-      </c>
-      <c r="H46" s="12"/>
+        <v>43881</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3501,7 +3587,7 @@
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
+      <c r="Z46" s="9"/>
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
@@ -3517,32 +3603,32 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
-      <c r="B47" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="8"/>
+      <c r="B47" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7">
-        <v>43866</v>
+        <v>43869</v>
       </c>
       <c r="G47" s="7">
-        <v>43867</v>
+        <v>43871</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -3565,21 +3651,19 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
-      <c r="B48" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="8"/>
+      <c r="B48" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="G48" s="7">
         <v>43872</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3587,8 +3671,8 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -3613,17 +3697,17 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
-      <c r="B49" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="8"/>
+      <c r="B49" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="14"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="G49" s="7">
-        <v>43875</v>
+        <v>43867</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>86</v>
@@ -3635,10 +3719,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="9"/>
+      <c r="P49" s="10"/>
       <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
@@ -3661,20 +3745,20 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
-      <c r="B50" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8"/>
+      <c r="B50" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="G50" s="7">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -3683,10 +3767,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
@@ -3709,26 +3793,26 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
-      <c r="B51" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="8"/>
+      <c r="B51" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="14"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="G51" s="7">
-        <v>43871</v>
+        <v>43875</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="9"/>
@@ -3757,14 +3841,14 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
-      <c r="B52" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="8"/>
+      <c r="B52" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="14"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="G52" s="7">
         <v>43875</v>
@@ -3780,10 +3864,10 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="9"/>
+      <c r="Q52" s="10"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
+      <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
@@ -3805,32 +3889,32 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="B53" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="14"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7">
+        <v>43868</v>
+      </c>
+      <c r="G53" s="7">
         <v>43871</v>
       </c>
-      <c r="G53" s="7">
-        <v>43872</v>
-      </c>
       <c r="H53" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
@@ -3853,33 +3937,33 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
-      <c r="B54" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="8"/>
+      <c r="B54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="14"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="7">
-        <v>43868</v>
+        <v>43872</v>
       </c>
       <c r="G54" s="7">
-        <v>43872</v>
+        <v>43875</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="9"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="9"/>
+      <c r="P54" s="10"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
-      <c r="T54" s="10"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3901,20 +3985,20 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
-      <c r="B55" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="8"/>
+      <c r="B55" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="14"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7">
+        <v>43871</v>
+      </c>
+      <c r="G55" s="7">
         <v>43872</v>
       </c>
-      <c r="G55" s="7">
-        <v>43873</v>
-      </c>
       <c r="H55" s="12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3925,9 +4009,9 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -3949,32 +4033,32 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
-      <c r="B56" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="8"/>
+      <c r="B56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="G56" s="7">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="M56" s="9"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -3997,20 +4081,20 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
-      <c r="B57" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="8"/>
+      <c r="B57" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="G57" s="7">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -4021,7 +4105,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="10"/>
@@ -4045,20 +4129,20 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
-      <c r="B58" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="8"/>
+      <c r="B58" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="14"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G58" s="7">
         <v>43875</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4071,7 +4155,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="9"/>
+      <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -4093,20 +4177,20 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
-      <c r="B59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="8"/>
+      <c r="B59" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="14"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G59" s="7">
         <v>43875</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4118,7 +4202,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -4139,63 +4223,101 @@
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
     </row>
-    <row r="60" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G60" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G61" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
     </row>
     <row r="62" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -4342,19 +4464,77 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
+    <row r="67" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A59"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A61"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05.일정관리/WBS template.xlsx
+++ b/05.일정관리/WBS template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\TeamProject\contents5\TeamProject\05.일정관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\contents5\TeamProject\05.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>공정</t>
   </si>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t>전세현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사강조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,12 +750,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,6 +757,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +801,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>149039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -797,7 +809,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +866,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>382682</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -862,7 +874,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,23 +925,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177613</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>147357</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86EDE9-89EE-4017-A973-816CDCF02D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,8 +949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10420350" y="590550"/>
-          <a:ext cx="361950" cy="11830050"/>
+          <a:off x="11405907" y="627529"/>
+          <a:ext cx="361950" cy="12643597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,6 +986,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9239250" y="11830050"/>
+          <a:ext cx="400050" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1242,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL68"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y46" sqref="Y46"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,39 +1327,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1328,28 +1395,28 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1444,14 +1511,14 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="4">
         <v>43864</v>
       </c>
@@ -1522,7 +1589,7 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1576,7 +1643,7 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1693,7 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="20" t="s">
         <v>56</v>
       </c>
@@ -1676,7 +1743,7 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1793,7 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
@@ -1776,7 +1843,7 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="20" t="s">
         <v>55</v>
       </c>
@@ -1868,7 +1935,7 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1920,7 +1987,7 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="21" t="s">
         <v>90</v>
       </c>
@@ -1970,7 +2037,7 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="21" t="s">
         <v>59</v>
       </c>
@@ -2020,7 +2087,7 @@
       <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2137,7 @@
       <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="21" t="s">
         <v>60</v>
       </c>
@@ -2120,7 +2187,7 @@
       <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="20" t="s">
         <v>87</v>
       </c>
@@ -2170,7 +2237,7 @@
       <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2287,7 @@
       <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="21" t="s">
         <v>58</v>
       </c>
@@ -2270,7 +2337,7 @@
       <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2320,7 +2387,7 @@
       <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2366,7 +2433,7 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="21" t="s">
         <v>61</v>
       </c>
@@ -2416,7 +2483,7 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="22" t="s">
         <v>98</v>
       </c>
@@ -2437,7 +2504,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -2466,7 +2533,7 @@
       <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2516,7 +2583,7 @@
       <c r="AL24" s="8"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="11" t="s">
         <v>100</v>
       </c>
@@ -2562,7 +2629,7 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="22" t="s">
         <v>82</v>
       </c>
@@ -2612,7 +2679,7 @@
       <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="23" t="s">
         <v>111</v>
       </c>
@@ -2662,7 +2729,7 @@
       <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="23" t="s">
         <v>110</v>
       </c>
@@ -2712,7 +2779,7 @@
       <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="23" t="s">
         <v>112</v>
       </c>
@@ -2762,7 +2829,7 @@
       <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="22" t="s">
         <v>81</v>
       </c>
@@ -2786,9 +2853,9 @@
       <c r="L30" s="10"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
@@ -2812,7 +2879,7 @@
       <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="22" t="s">
         <v>83</v>
       </c>
@@ -2836,7 +2903,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
@@ -2862,7 +2929,7 @@
       <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="21" t="s">
         <v>84</v>
       </c>
@@ -2912,7 +2979,7 @@
       <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="21" t="s">
         <v>79</v>
       </c>
@@ -2962,7 +3029,7 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="21" t="s">
         <v>80</v>
       </c>
@@ -3012,7 +3079,7 @@
       <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="6" t="s">
         <v>107</v>
       </c>
@@ -3058,7 +3125,7 @@
       <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
@@ -3108,7 +3175,7 @@
       <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="21" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +3223,7 @@
       <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="21" t="s">
         <v>67</v>
       </c>
@@ -3206,7 +3273,7 @@
       <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="21" t="s">
         <v>12</v>
       </c>
@@ -3256,7 +3323,7 @@
       <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -3304,7 +3371,7 @@
       <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="21" t="s">
         <v>63</v>
       </c>
@@ -3354,7 +3421,7 @@
       <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="22" t="s">
         <v>65</v>
       </c>
@@ -3404,7 +3471,7 @@
       <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="22" t="s">
         <v>66</v>
       </c>
@@ -3454,7 +3521,7 @@
       <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="22" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +3571,7 @@
       <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="21" t="s">
         <v>117</v>
       </c>
@@ -3552,7 +3619,7 @@
       <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="21" t="s">
         <v>123</v>
       </c>
@@ -3602,7 +3669,7 @@
       <c r="AL46" s="8"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="21" t="s">
         <v>118</v>
       </c>
@@ -3650,20 +3717,24 @@
       <c r="AL47" s="8"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7">
-        <v>43866</v>
+        <v>43874</v>
       </c>
       <c r="G48" s="7">
-        <v>43872</v>
-      </c>
-      <c r="H48" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3674,8 +3745,8 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
@@ -3696,9 +3767,9 @@
       <c r="AL48" s="8"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22" t="s">
-        <v>94</v>
+      <c r="A49" s="28"/>
+      <c r="B49" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="8"/>
@@ -3707,11 +3778,9 @@
         <v>43866</v>
       </c>
       <c r="G49" s="7">
-        <v>43867</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>86</v>
-      </c>
+        <v>43872</v>
+      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -3720,7 +3789,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="9"/>
+      <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
@@ -3744,18 +3813,18 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="22" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="G50" s="7">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>86</v>
@@ -3767,7 +3836,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="9"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
@@ -3792,9 +3861,9 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="8"/>
@@ -3803,7 +3872,7 @@
         <v>43871</v>
       </c>
       <c r="G51" s="7">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>86</v>
@@ -3817,8 +3886,8 @@
       <c r="O51" s="10"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
@@ -3840,21 +3909,21 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="21" t="s">
-        <v>69</v>
+      <c r="A52" s="28"/>
+      <c r="B52" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="G52" s="7">
         <v>43875</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -3863,8 +3932,8 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="10"/>
@@ -3888,9 +3957,9 @@
       <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22" t="s">
-        <v>73</v>
+      <c r="A53" s="28"/>
+      <c r="B53" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="8"/>
@@ -3899,7 +3968,7 @@
         <v>43868</v>
       </c>
       <c r="G53" s="7">
-        <v>43871</v>
+        <v>43875</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>91</v>
@@ -3908,11 +3977,11 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="9"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="10"/>
@@ -3936,18 +4005,18 @@
       <c r="AL53" s="8"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="7">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="G54" s="7">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>91</v>
@@ -3956,14 +4025,14 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="M54" s="9"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3984,21 +4053,21 @@
       <c r="AL54" s="8"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
-        <v>75</v>
+      <c r="A55" s="28"/>
+      <c r="B55" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="G55" s="7">
-        <v>43872</v>
+        <v>43875</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -4008,10 +4077,10 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -4032,33 +4101,33 @@
       <c r="AL55" s="8"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22" t="s">
-        <v>76</v>
+      <c r="A56" s="28"/>
+      <c r="B56" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="G56" s="7">
         <v>43872</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="9"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -4080,31 +4149,31 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
+        <v>43868</v>
+      </c>
+      <c r="G57" s="7">
         <v>43872</v>
       </c>
-      <c r="G57" s="7">
-        <v>43873</v>
-      </c>
       <c r="H57" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
+      <c r="M57" s="9"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -4128,21 +4197,21 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
-        <v>70</v>
+      <c r="A58" s="28"/>
+      <c r="B58" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="G58" s="7">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4153,9 +4222,9 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -4176,21 +4245,21 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="22" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7">
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="G59" s="7">
         <v>43875</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4224,21 +4293,21 @@
       <c r="AL59" s="8"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G60" s="7">
         <v>43875</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -4251,7 +4320,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="9"/>
+      <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -4272,21 +4341,21 @@
       <c r="AL60" s="8"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="22" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="7">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="G61" s="7">
         <v>43875</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -4298,7 +4367,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
+      <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
@@ -4321,26 +4390,38 @@
     </row>
     <row r="62" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="B62" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G62" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -4350,25 +4431,37 @@
     </row>
     <row r="63" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
+      <c r="B63" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G63" s="7">
+        <v>43875</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -4522,19 +4615,62 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A61"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A61"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
